--- a/Excel_Files/Dynamic_Range/2.5_cm/754_nm.xlsx
+++ b/Excel_Files/Dynamic_Range/2.5_cm/754_nm.xlsx
@@ -450,28 +450,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>211.575</v>
+        <v>78.408</v>
       </c>
       <c r="D2">
-        <v>323.068</v>
+        <v>101.538</v>
       </c>
       <c r="E2">
-        <v>487.53</v>
+        <v>150.253</v>
       </c>
       <c r="F2">
-        <v>1526.04</v>
+        <v>388.036</v>
       </c>
       <c r="G2">
-        <v>376.286</v>
+        <v>134.248</v>
       </c>
       <c r="H2">
-        <v>1846.821</v>
+        <v>433.73</v>
       </c>
       <c r="I2">
-        <v>369.967</v>
+        <v>122.044</v>
       </c>
       <c r="J2">
-        <v>735.8579999999999</v>
+        <v>206.213</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -482,28 +482,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>41.223</v>
+        <v>21.559</v>
       </c>
       <c r="D3">
-        <v>130.929</v>
+        <v>51.56</v>
       </c>
       <c r="E3">
-        <v>98.238</v>
+        <v>42.649</v>
       </c>
       <c r="F3">
-        <v>130.098</v>
+        <v>55.018</v>
       </c>
       <c r="G3">
-        <v>126.76</v>
+        <v>54.512</v>
       </c>
       <c r="H3">
-        <v>163.508</v>
+        <v>64.658</v>
       </c>
       <c r="I3">
-        <v>83.651</v>
+        <v>38.003</v>
       </c>
       <c r="J3">
-        <v>62.475</v>
+        <v>31.073</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -514,28 +514,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>16.603</v>
+        <v>10.364</v>
       </c>
       <c r="D4">
-        <v>29.506</v>
+        <v>15.693</v>
       </c>
       <c r="E4">
-        <v>29.06</v>
+        <v>15.753</v>
       </c>
       <c r="F4">
-        <v>22.641</v>
+        <v>13.374</v>
       </c>
       <c r="G4">
-        <v>28.127</v>
+        <v>16.048</v>
       </c>
       <c r="H4">
-        <v>34.001</v>
+        <v>18.368</v>
       </c>
       <c r="I4">
-        <v>37.513</v>
+        <v>20.055</v>
       </c>
       <c r="J4">
-        <v>11.163</v>
+        <v>7.352</v>
       </c>
     </row>
   </sheetData>
